--- a/精算書作成/精算書_販売.xlsx
+++ b/精算書作成/精算書_販売.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkyutechjp-my.sharepoint.com/personal/nakanishi_takumi767_mail_kyutech_jp/Documents/自動化/automation-with-python/精算書作成/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98CA95DF-C659-974A-80D9-D302549AF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{98CA95DF-C659-974A-80D9-D302549AF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F93DA578-F559-BE45-AED1-FF6B2B23E0D9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0895C664-E46E-F74F-9AAF-7BEC42FF8F0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{0895C664-E46E-F74F-9AAF-7BEC42FF8F0E}"/>
   </bookViews>
   <sheets>
     <sheet name="精算書_販売" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">明細書!$A$1:$F$51</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>精算書</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>*口座名義人：株式会社OKURA     ｶ)ｵｵｸﾗ</t>
-  </si>
-  <si>
-    <t>伝票NO.06122024004</t>
   </si>
 </sst>
 </file>
@@ -569,12 +566,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,48 +581,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -650,6 +606,98 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,103 +708,52 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1099,7 +1096,7 @@
   </sheetPr>
   <dimension ref="A2:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1120,639 +1117,639 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="6" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="9">
+      <c r="I5" s="36"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="63">
         <f>明細書!E3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="18" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="19" t="str">
+      <c r="A9" s="5"/>
+      <c r="B9" s="62">
         <f>明細書!E5</f>
-        <v>伝票NO.06122024004</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="18" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="18" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="18" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="19" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="19" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66">
         <f>O23</f>
         <v>0</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:17" ht="9.75" customHeight="1" thickTop="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="18" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="21" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="32" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="32" t="s">
+      <c r="N19" s="54"/>
+      <c r="O19" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="1:17" ht="22" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="39"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="23" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="46"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="38"/>
       <c r="O21" s="47"/>
       <c r="P21" s="48"/>
-      <c r="Q21" s="46"/>
+      <c r="Q21" s="38"/>
     </row>
     <row r="22" spans="1:17" ht="19.5" customHeight="1">
       <c r="A22" s="49"/>
-      <c r="B22" s="42"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="50"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="51"/>
-      <c r="N22" s="46"/>
+      <c r="N22" s="38"/>
       <c r="O22" s="52"/>
       <c r="P22" s="48"/>
-      <c r="Q22" s="46"/>
+      <c r="Q22" s="38"/>
     </row>
     <row r="23" spans="1:17" ht="29" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="56">
+      <c r="N23" s="31"/>
+      <c r="O23" s="32">
         <f>O20</f>
         <v>0</v>
       </c>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="42"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="57" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="44"/>
-      <c r="O24" s="56">
+      <c r="N24" s="31"/>
+      <c r="O24" s="32">
         <f>O23/(1+0.1)*0.1</f>
         <v>0</v>
       </c>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="42"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="62" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="64"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="66"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="67" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="66"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="69" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="70"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="26"/>
     </row>
     <row r="32" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
     </row>
     <row r="33" ht="19.5" customHeight="1"/>
     <row r="34" ht="19.5" customHeight="1"/>
@@ -1760,21 +1757,29 @@
     <row r="36" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A28:B31"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:Q14"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="M19:N19"/>
@@ -1783,29 +1788,21 @@
     <mergeCell ref="C20:L20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A28:B31"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1827,16 +1824,16 @@
   </sheetPr>
   <dimension ref="E1:F45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.83203125" style="73" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="29" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="13" width="9" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
@@ -1851,16 +1848,13 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="72"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="5:6">
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="5:6" ht="19.5" customHeight="1">
-      <c r="E5" s="73" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="5:6" ht="25.5" customHeight="1">
